--- a/src/test/resources/testdataECOM/CustomerDataExcel.xlsx
+++ b/src/test/resources/testdataECOM/CustomerDataExcel.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>VAT</t>
   </si>
@@ -278,7 +278,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -314,6 +314,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
@@ -688,7 +691,7 @@
       <c r="C2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="18" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="11"/>

--- a/src/test/resources/testdataECOM/CustomerDataExcel.xlsx
+++ b/src/test/resources/testdataECOM/CustomerDataExcel.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t>VAT</t>
   </si>
@@ -278,7 +278,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -314,6 +314,48 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
@@ -691,7 +733,7 @@
       <c r="C2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="32" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="11"/>

--- a/src/test/resources/testdataECOM/CustomerDataExcel.xlsx
+++ b/src/test/resources/testdataECOM/CustomerDataExcel.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
   <si>
     <t>VAT</t>
   </si>
@@ -278,7 +278,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -314,6 +314,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
@@ -733,7 +739,7 @@
       <c r="C2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="34" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="11"/>

--- a/src/test/resources/testdataECOM/CustomerDataExcel.xlsx
+++ b/src/test/resources/testdataECOM/CustomerDataExcel.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="35">
   <si>
     <t>VAT</t>
   </si>
@@ -278,7 +278,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -314,6 +314,147 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
@@ -739,7 +880,7 @@
       <c r="C2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="81" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="11"/>

--- a/src/test/resources/testdataECOM/CustomerDataExcel.xlsx
+++ b/src/test/resources/testdataECOM/CustomerDataExcel.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="35">
   <si>
     <t>VAT</t>
   </si>
@@ -278,7 +278,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -314,6 +314,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
@@ -880,7 +892,7 @@
       <c r="C2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="81" t="s">
+      <c r="D2" s="85" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="11"/>

--- a/src/test/resources/testdataECOM/CustomerDataExcel.xlsx
+++ b/src/test/resources/testdataECOM/CustomerDataExcel.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="35">
   <si>
     <t>VAT</t>
   </si>
@@ -278,7 +278,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -314,6 +314,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
@@ -892,7 +895,7 @@
       <c r="C2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="86" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="11"/>

--- a/src/test/resources/testdataECOM/CustomerDataExcel.xlsx
+++ b/src/test/resources/testdataECOM/CustomerDataExcel.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="35">
   <si>
     <t>VAT</t>
   </si>
@@ -278,7 +278,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -314,6 +314,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
@@ -895,7 +898,7 @@
       <c r="C2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="87" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="11"/>
